--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H2">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>0.2547668411766667</v>
+        <v>0.3461194908888889</v>
       </c>
       <c r="R2">
-        <v>2.29290157059</v>
+        <v>3.115075418</v>
       </c>
       <c r="S2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="T2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H3">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>1.854440295432</v>
+        <v>1.88912738144</v>
       </c>
       <c r="R3">
-        <v>16.689962658888</v>
+        <v>17.00214643296</v>
       </c>
       <c r="S3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="T3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H4">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.021608167808</v>
+        <v>0.04123305460444445</v>
       </c>
       <c r="R4">
-        <v>0.194473510272</v>
+        <v>0.37109749144</v>
       </c>
       <c r="S4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="T4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H5">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>0.4024919305886666</v>
+        <v>0.4852457252355556</v>
       </c>
       <c r="R5">
-        <v>3.622427375298</v>
+        <v>4.367211527119999</v>
       </c>
       <c r="S5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="T5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H6">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.01526274262533333</v>
+        <v>0.02027605562666667</v>
       </c>
       <c r="R6">
-        <v>0.137364683628</v>
+        <v>0.18248450064</v>
       </c>
       <c r="S6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="T6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
     </row>
   </sheetData>
